--- a/teaching/traditional_assets/database/data/switzerland/switzerland_semiconductor_equip.xlsx
+++ b/teaching/traditional_assets/database/data/switzerland/switzerland_semiconductor_equip.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0426</v>
+        <v>-0.09359999999999999</v>
       </c>
       <c r="G2">
-        <v>0.247537754432042</v>
+        <v>-0.06265539532570862</v>
       </c>
       <c r="H2">
-        <v>0.07255416940249508</v>
+        <v>-0.234211834908006</v>
       </c>
       <c r="I2">
-        <v>-0.1191444752747974</v>
+        <v>-0.3793267021051966</v>
       </c>
       <c r="J2">
-        <v>-0.1191444752747974</v>
+        <v>-0.3793267021051966</v>
       </c>
       <c r="K2">
-        <v>-67.59999999999999</v>
+        <v>-84.5</v>
       </c>
       <c r="L2">
-        <v>-0.221930400525279</v>
+        <v>-0.4201889607160617</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>32.5</v>
+        <v>40.1</v>
       </c>
       <c r="V2">
-        <v>0.1241880015284677</v>
+        <v>0.04198952879581152</v>
       </c>
       <c r="W2">
-        <v>-0.2695374800637958</v>
+        <v>-0.3747228381374723</v>
       </c>
       <c r="X2">
-        <v>0.1304550968998821</v>
+        <v>0.09430736548875945</v>
       </c>
       <c r="Y2">
-        <v>-0.3999925769636778</v>
+        <v>-0.4690302036262317</v>
       </c>
       <c r="Z2">
-        <v>1.38261585170778</v>
+        <v>0.8142920228590791</v>
       </c>
       <c r="AA2">
-        <v>-0.1647310401583406</v>
+        <v>-0.3088827075817038</v>
       </c>
       <c r="AB2">
-        <v>0.1130023654444814</v>
+        <v>0.0910409833514835</v>
       </c>
       <c r="AC2">
-        <v>-0.277733405602822</v>
+        <v>-0.3999236909331874</v>
       </c>
       <c r="AD2">
-        <v>40.4</v>
+        <v>31.6</v>
       </c>
       <c r="AE2">
-        <v>15.4070358435165</v>
+        <v>13.5629989667752</v>
       </c>
       <c r="AF2">
-        <v>55.8070358435165</v>
+        <v>45.1629989667752</v>
       </c>
       <c r="AG2">
-        <v>23.3070358435165</v>
+        <v>5.062998966775197</v>
       </c>
       <c r="AH2">
-        <v>0.1757662966278991</v>
+        <v>0.0451556386443321</v>
       </c>
       <c r="AI2">
-        <v>0.1983847850665223</v>
+        <v>0.2384995971398789</v>
       </c>
       <c r="AJ2">
-        <v>0.08177705429108514</v>
+        <v>0.005273611181999538</v>
       </c>
       <c r="AK2">
-        <v>0.09367514774853521</v>
+        <v>0.03391998688102323</v>
       </c>
       <c r="AL2">
-        <v>3.53</v>
+        <v>2.91</v>
       </c>
       <c r="AM2">
-        <v>3.472</v>
+        <v>2.803</v>
       </c>
       <c r="AN2">
-        <v>-2.447001817080557</v>
+        <v>-0.5050343615151031</v>
       </c>
       <c r="AO2">
-        <v>-10.48158640226629</v>
+        <v>-26.39175257731959</v>
       </c>
       <c r="AP2">
-        <v>-1.411692055936796</v>
+        <v>-0.08091735602964995</v>
       </c>
       <c r="AQ2">
-        <v>-10.65668202764977</v>
+        <v>-27.39921512665002</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0426</v>
+        <v>-0.09359999999999999</v>
       </c>
       <c r="G3">
-        <v>0.247537754432042</v>
+        <v>-0.06265539532570862</v>
       </c>
       <c r="H3">
-        <v>0.07255416940249508</v>
+        <v>-0.234211834908006</v>
       </c>
       <c r="I3">
-        <v>-0.1191444752747974</v>
+        <v>-0.3793267021051966</v>
       </c>
       <c r="J3">
-        <v>-0.1191444752747974</v>
+        <v>-0.3793267021051966</v>
       </c>
       <c r="K3">
-        <v>-67.59999999999999</v>
+        <v>-84.5</v>
       </c>
       <c r="L3">
-        <v>-0.221930400525279</v>
+        <v>-0.4201889607160617</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>32.5</v>
+        <v>40.1</v>
       </c>
       <c r="V3">
-        <v>0.1241880015284677</v>
+        <v>0.04198952879581152</v>
       </c>
       <c r="W3">
-        <v>-0.2695374800637958</v>
+        <v>-0.3747228381374723</v>
       </c>
       <c r="X3">
-        <v>0.1304550968998821</v>
+        <v>0.09430736548875945</v>
       </c>
       <c r="Y3">
-        <v>-0.3999925769636778</v>
+        <v>-0.4690302036262317</v>
       </c>
       <c r="Z3">
-        <v>1.38261585170778</v>
+        <v>0.8142920228590791</v>
       </c>
       <c r="AA3">
-        <v>-0.1647310401583406</v>
+        <v>-0.3088827075817038</v>
       </c>
       <c r="AB3">
-        <v>0.1130023654444814</v>
+        <v>0.0910409833514835</v>
       </c>
       <c r="AC3">
-        <v>-0.277733405602822</v>
+        <v>-0.3999236909331874</v>
       </c>
       <c r="AD3">
-        <v>40.4</v>
+        <v>31.6</v>
       </c>
       <c r="AE3">
-        <v>15.4070358435165</v>
+        <v>13.5629989667752</v>
       </c>
       <c r="AF3">
-        <v>55.8070358435165</v>
+        <v>45.1629989667752</v>
       </c>
       <c r="AG3">
-        <v>23.3070358435165</v>
+        <v>5.062998966775197</v>
       </c>
       <c r="AH3">
-        <v>0.1757662966278991</v>
+        <v>0.0451556386443321</v>
       </c>
       <c r="AI3">
-        <v>0.1983847850665223</v>
+        <v>0.2384995971398789</v>
       </c>
       <c r="AJ3">
-        <v>0.08177705429108514</v>
+        <v>0.005273611181999538</v>
       </c>
       <c r="AK3">
-        <v>0.09367514774853521</v>
+        <v>0.03391998688102323</v>
       </c>
       <c r="AL3">
-        <v>3.53</v>
+        <v>2.91</v>
       </c>
       <c r="AM3">
-        <v>3.472</v>
+        <v>2.803</v>
       </c>
       <c r="AN3">
-        <v>-2.447001817080557</v>
+        <v>-0.5050343615151031</v>
       </c>
       <c r="AO3">
-        <v>-10.48158640226629</v>
+        <v>-26.39175257731959</v>
       </c>
       <c r="AP3">
-        <v>-1.411692055936796</v>
+        <v>-0.08091735602964995</v>
       </c>
       <c r="AQ3">
-        <v>-10.65668202764977</v>
+        <v>-27.39921512665002</v>
       </c>
     </row>
   </sheetData>
